--- a/قالب-عيوب-الطرق-الرئيسية.xlsx
+++ b/قالب-عيوب-الطرق-الرئيسية.xlsx
@@ -1,125 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohme\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A7685-AA09-4AE1-B10E-A16A86017A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Section_Code</t>
-  </si>
-  <si>
-    <t>Lane</t>
-  </si>
-  <si>
-    <t>Distress_No</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Lane_Area</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Distress_Area</t>
-  </si>
-  <si>
-    <t>Distress_Length</t>
-  </si>
-  <si>
-    <t>Distress_Width</t>
-  </si>
-  <si>
-    <t>SurveyDate</t>
-  </si>
-  <si>
-    <t>SampleCode</t>
-  </si>
-  <si>
-    <t>0060010001004030215N</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>طولي العيب يجب ان يكون ملم</t>
-  </si>
-  <si>
-    <t>حفظ الخانات في حالة رفع عيوب بدون عينة(بمهنى التاريخ في الخانة L حتى لو كانت البيانات لعسير)</t>
-  </si>
-  <si>
-    <t>خانة رفع عيوب عسير والطائف مشتركة , ولكن يتم اختبار فقط العينات</t>
-  </si>
-  <si>
-    <t>في حالة  وجود عينة واحدة  غير موجودة سيتم التعامل مع الملف المرفوع نفس بيانات عسير لذا يرجى التأكد اولا ان جميع العينات تمت تعبيتها</t>
-  </si>
-  <si>
-    <t>سيتم تنزيل  ملف اكسل مباشرة  يحتوي على كل العينات الغير موجودة في قاعدة البيانات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اي خلل في ترتيب القالب يسبب خطأ </t>
-  </si>
-  <si>
-    <t>التاريخ يجب ان يكون بنفس الصيغة الموجودة فبي المثال</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="9"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F0F0"/>
+        <bgColor rgb="00F0F0F0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -160,32 +89,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,140 +446,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14" style="4" customWidth="1"/>
+    <col width="21.7265625" customWidth="1" min="1" max="1"/>
+    <col width="15.81640625" customWidth="1" min="3" max="3"/>
+    <col width="12.1796875" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="12.26953125" customWidth="1" min="7" max="7"/>
+    <col width="17.54296875" customWidth="1" min="8" max="8"/>
+    <col width="15.6328125" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="17.81640625" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" style="5" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Section_Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lane</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Distress_No</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lane_Area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Distress_Area</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Distress_Length</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Distress_Width</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>SampleCode</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>SurveyDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل رمز القطاع</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل رمز المسار (L, R, إلخ)</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل رقم نوع العيب</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل درجة الخطورة (Low, Medium, High)</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل مساحة المسار</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل الطول</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل العرض</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل مساحة العيب</t>
+        </is>
+      </c>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل طول العيب</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل عرض العيب</t>
+        </is>
+      </c>
+      <c r="K2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل رمز العينة</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="inlineStr">
+        <is>
+          <t>أدخل تاريخ المسح</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0060010001004030215N</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10143.486</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2779.037134487853</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.176775018430652e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>41.76775117069322</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>10143.486000000001</v>
-      </c>
-      <c r="F2">
-        <v>2779.0371344878531</v>
-      </c>
-      <c r="G2">
-        <v>3.65</v>
-      </c>
-      <c r="H2">
-        <v>4.1767750184306516E-5</v>
-      </c>
-      <c r="I2">
-        <v>41.767751170693224</v>
-      </c>
-      <c r="J2">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="L3" s="5" t="n">
         <v>43910</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="P15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.35">
-      <c r="P19" t="s">
-        <v>21</v>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>طولي العيب يجب ان يكون ملم</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>حفظ الخانات في حالة رفع عيوب بدون عينة(بمهنى التاريخ في الخانة L حتى لو كانت البيانات لعسير)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>خانة رفع عيوب عسير والطائف مشتركة , ولكن يتم اختبار فقط العينات</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>في حالة  وجود عينة واحدة  غير موجودة سيتم التعامل مع الملف المرفوع نفس بيانات عسير لذا يرجى التأكد اولا ان جميع العينات تمت تعبيتها</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>سيتم تنزيل  ملف اكسل مباشرة  يحتوي على كل العينات الغير موجودة في قاعدة البيانات</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اي خلل في ترتيب القالب يسبب خطأ </t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>التاريخ يجب ان يكون بنفس الصيغة الموجودة فبي المثال</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>